--- a/docs/PPG/Repositórios.xlsx
+++ b/docs/PPG/Repositórios.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0369E66E-4DDE-FC44-8586-3E03947A6D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16EFFE2-D1DF-094C-B7C0-F94512B6595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dissertações" sheetId="1" r:id="rId1"/>
-    <sheet name="Teses" sheetId="6" r:id="rId2"/>
+    <sheet name="Sede" sheetId="1" r:id="rId1"/>
+    <sheet name="Cooperação" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Curso</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>1pP_7A0gWvmMleVgngGtda2NqnGkmxDe5</t>
+  </si>
+  <si>
+    <t>1ZXgqW8bqo8e0CLx51OTQw3j3Cc1E1aOo</t>
+  </si>
+  <si>
+    <t>1ZTTUp6sjiLcQMFdhuY6h9v6xqWKJTdd3</t>
   </si>
 </sst>
 </file>
@@ -114,10 +120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -462,12 +469,20 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
@@ -513,17 +528,25 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
